--- a/team/recettes/pizza margherita.xlsx
+++ b/team/recettes/pizza margherita.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salma\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salma\IdeaProjects\2022-groupe01\team\recettes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAEEE008-C776-47B3-8B89-09DE5700EA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A0F0E4-CDE5-4E56-8DE5-C2BE70170203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A02322B9-E940-4175-A240-AD43C21460BD}"/>
+    <workbookView xWindow="11928" yWindow="5052" windowWidth="13548" windowHeight="8880" xr2:uid="{A02322B9-E940-4175-A240-AD43C21460BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -46,36 +46,6 @@
     <t>pizza margherita</t>
   </si>
   <si>
-    <t>huile d'olive</t>
-  </si>
-  <si>
-    <t>mozzarella</t>
-  </si>
-  <si>
-    <t>oignon</t>
-  </si>
-  <si>
-    <t>ail</t>
-  </si>
-  <si>
-    <t>sel</t>
-  </si>
-  <si>
-    <t>concentré de tomate</t>
-  </si>
-  <si>
-    <t>tomate</t>
-  </si>
-  <si>
-    <t>farine</t>
-  </si>
-  <si>
-    <t>levure boulangère</t>
-  </si>
-  <si>
-    <t>eau</t>
-  </si>
-  <si>
     <t>végétarien</t>
   </si>
   <si>
@@ -160,18 +130,6 @@
     <t>À la sortie du four, disposez quelques feuilles de basilic.</t>
   </si>
   <si>
-    <t xml:space="preserve">basilic </t>
-  </si>
-  <si>
-    <t>poivre</t>
-  </si>
-  <si>
-    <t>thym</t>
-  </si>
-  <si>
-    <t>feuille de laurier</t>
-  </si>
-  <si>
     <t>https://www.marmiton.org/recettes/recette_la-pizza-margherita-recette-realisable-a-la-maison_335446.aspx</t>
   </si>
   <si>
@@ -221,6 +179,48 @@
   </si>
   <si>
     <t>plat principal</t>
+  </si>
+  <si>
+    <t>Huile d'olive</t>
+  </si>
+  <si>
+    <t>Mozzarella au lait de vache</t>
+  </si>
+  <si>
+    <t>Oignon, cru</t>
+  </si>
+  <si>
+    <t>Ail, cru</t>
+  </si>
+  <si>
+    <t>Sel blanc alimentaire, iodé, fluoré à 25 mg /100 g (marin, ignigène ou gemme)</t>
+  </si>
+  <si>
+    <t>Tomate, concentré, appertisé</t>
+  </si>
+  <si>
+    <t>Tomate, crue</t>
+  </si>
+  <si>
+    <t>Farine de blé tendre ou froment T55 (pour pains)</t>
+  </si>
+  <si>
+    <t>Levure de boulanger, déshydratée</t>
+  </si>
+  <si>
+    <t>Eau minérale (aliment moyen)</t>
+  </si>
+  <si>
+    <t>Basilic, frais</t>
+  </si>
+  <si>
+    <t>Poivre noir, poudre</t>
+  </si>
+  <si>
+    <t>Thym, frais</t>
+  </si>
+  <si>
+    <t>Laurier, feuille</t>
   </si>
 </sst>
 </file>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA22C4B-E20B-4715-9B25-DDA9A8432E49}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,19 +611,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -631,233 +631,233 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G19" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G20" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G21" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G22" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G23" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G24" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G25" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G26" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G27" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G28" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -882,15 +882,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003A2AB9DD5B10D944B262093A9AAF3CC9" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="caf85472f4fcfb3a743cda56875ddfb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ea62a05a-5154-454e-812a-649395124f9d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="93d9d3ea68f631e42d39596aacd92f9a" ns3:_="">
     <xsd:import namespace="ea62a05a-5154-454e-812a-649395124f9d"/>
@@ -1036,6 +1027,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5737D54-AD27-455F-8101-278D4DB5E124}">
   <ds:schemaRefs>
@@ -1053,14 +1053,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3064E3F2-FC5B-4F98-9D6D-E0160816684D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{944EB2A0-A56D-406B-8522-120C31CC705D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1076,4 +1068,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3064E3F2-FC5B-4F98-9D6D-E0160816684D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/team/recettes/pizza margherita.xlsx
+++ b/team/recettes/pizza margherita.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salma\IdeaProjects\2022-groupe01\team\recettes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A0F0E4-CDE5-4E56-8DE5-C2BE70170203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84BA8B8-60B1-4E2F-9097-0E43AD407215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11928" yWindow="5052" windowWidth="13548" windowHeight="8880" xr2:uid="{A02322B9-E940-4175-A240-AD43C21460BD}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="13548" windowHeight="8880" xr2:uid="{A02322B9-E940-4175-A240-AD43C21460BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Nom</t>
   </si>
@@ -221,6 +222,9 @@
   </si>
   <si>
     <t>Laurier, feuille</t>
+  </si>
+  <si>
+    <t>Quantite</t>
   </si>
 </sst>
 </file>
@@ -589,21 +593,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA22C4B-E20B-4715-9B25-DDA9A8432E49}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="3" width="21.77734375" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1"/>
-    <col min="7" max="7" width="138.77734375" customWidth="1"/>
+    <col min="2" max="4" width="21.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="138.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -611,264 +615,309 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>47</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>52</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>235</v>
+      </c>
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>55</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
         <v>37</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>60</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>61</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
         <v>36</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G16" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G17" t="s">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G18" t="s">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G19" s="1" t="s">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G20" s="1" t="s">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G21" t="s">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G22" t="s">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G23" t="s">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G24" t="s">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G25" t="s">
+    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G26" t="s">
+    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G27" t="s">
+    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G28" s="1" t="s">
+    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H28" s="1" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="https://www.marmiton.org/shopping/4-saladiers-qui-nous-ont-fait-craquer-s3032049.html?utm_source=ustensiles-recettes" xr:uid="{1B5E4E78-B4BE-4817-B71E-2E58A11C015A}"/>
-    <hyperlink ref="G4" r:id="rId2" display="https://www.marmiton.org/shopping/4-saladiers-qui-nous-ont-fait-craquer-s3032049.html?utm_source=ustensiles-recettes" xr:uid="{947B1725-1CF1-4E89-B347-015AFE7D80C9}"/>
-    <hyperlink ref="G9" r:id="rId3" display="https://www.marmiton.org/shopping/4-saladiers-qui-nous-ont-fait-craquer-s3032049.html?utm_source=ustensiles-recettes" xr:uid="{C6C5FAD6-9ECE-4BE2-9CBD-DC1C2D599EED}"/>
-    <hyperlink ref="G11" r:id="rId4" display="https://www.marmiton.org/shopping/4-saladiers-qui-nous-ont-fait-craquer-s3032049.html?utm_source=ustensiles-recettes" xr:uid="{F4F21A91-287F-4EC1-81F9-956AB8C6557C}"/>
-    <hyperlink ref="G19" r:id="rId5" display="https://www.marmiton.org/shopping/envie-d-un-four-encastrable-au-top-voici-les-6-meilleurs-fours-avec-pyrolyse-s4008147.html?utm_source=ustensiles-recettes" xr:uid="{C61D98DE-AA91-464A-84E5-63D45B68C989}"/>
-    <hyperlink ref="G20" r:id="rId6" display="https://www.marmiton.org/shopping/envie-d-un-four-encastrable-au-top-voici-les-6-meilleurs-fours-avec-pyrolyse-s4008147.html?utm_source=ustensiles-recettes" xr:uid="{875B96B9-C0AD-4818-B2C0-C898107FB626}"/>
-    <hyperlink ref="G28" r:id="rId7" display="https://www.marmiton.org/shopping/envie-d-un-four-encastrable-au-top-voici-les-6-meilleurs-fours-avec-pyrolyse-s4008147.html?utm_source=ustensiles-recettes" xr:uid="{4D08AE39-122A-4473-B58D-966D116F1641}"/>
+    <hyperlink ref="H3" r:id="rId1" display="https://www.marmiton.org/shopping/4-saladiers-qui-nous-ont-fait-craquer-s3032049.html?utm_source=ustensiles-recettes" xr:uid="{1B5E4E78-B4BE-4817-B71E-2E58A11C015A}"/>
+    <hyperlink ref="H4" r:id="rId2" display="https://www.marmiton.org/shopping/4-saladiers-qui-nous-ont-fait-craquer-s3032049.html?utm_source=ustensiles-recettes" xr:uid="{947B1725-1CF1-4E89-B347-015AFE7D80C9}"/>
+    <hyperlink ref="H9" r:id="rId3" display="https://www.marmiton.org/shopping/4-saladiers-qui-nous-ont-fait-craquer-s3032049.html?utm_source=ustensiles-recettes" xr:uid="{C6C5FAD6-9ECE-4BE2-9CBD-DC1C2D599EED}"/>
+    <hyperlink ref="H11" r:id="rId4" display="https://www.marmiton.org/shopping/4-saladiers-qui-nous-ont-fait-craquer-s3032049.html?utm_source=ustensiles-recettes" xr:uid="{F4F21A91-287F-4EC1-81F9-956AB8C6557C}"/>
+    <hyperlink ref="H19" r:id="rId5" display="https://www.marmiton.org/shopping/envie-d-un-four-encastrable-au-top-voici-les-6-meilleurs-fours-avec-pyrolyse-s4008147.html?utm_source=ustensiles-recettes" xr:uid="{C61D98DE-AA91-464A-84E5-63D45B68C989}"/>
+    <hyperlink ref="H20" r:id="rId6" display="https://www.marmiton.org/shopping/envie-d-un-four-encastrable-au-top-voici-les-6-meilleurs-fours-avec-pyrolyse-s4008147.html?utm_source=ustensiles-recettes" xr:uid="{875B96B9-C0AD-4818-B2C0-C898107FB626}"/>
+    <hyperlink ref="H28" r:id="rId7" display="https://www.marmiton.org/shopping/envie-d-un-four-encastrable-au-top-voici-les-6-meilleurs-fours-avec-pyrolyse-s4008147.html?utm_source=ustensiles-recettes" xr:uid="{4D08AE39-122A-4473-B58D-966D116F1641}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
@@ -882,6 +931,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003A2AB9DD5B10D944B262093A9AAF3CC9" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="caf85472f4fcfb3a743cda56875ddfb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ea62a05a-5154-454e-812a-649395124f9d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="93d9d3ea68f631e42d39596aacd92f9a" ns3:_="">
     <xsd:import namespace="ea62a05a-5154-454e-812a-649395124f9d"/>
@@ -1027,15 +1085,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5737D54-AD27-455F-8101-278D4DB5E124}">
   <ds:schemaRefs>
@@ -1053,6 +1102,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3064E3F2-FC5B-4F98-9D6D-E0160816684D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{944EB2A0-A56D-406B-8522-120C31CC705D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1068,12 +1125,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3064E3F2-FC5B-4F98-9D6D-E0160816684D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>